--- a/biology/Botanique/Sparganiaceae/Sparganiaceae.xlsx
+++ b/biology/Botanique/Sparganiaceae/Sparganiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Sparganiaceae est constituée de plantes monocotylédones ; elle comprend une vingtaine d'espèces appartenant au genre Sparganium L.
 Ce sont des plantes aquatiques, rhizomateuses ou parfois flottantes, des fossés et bord des eaux calmes, des régions froides ou tempérées, plus rarement tropicales.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Sparganium, issu du grec σπαργανιος / sparganios, «  enveloppé de langes ».
 </t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG III (2009)[1] cette famille est invalide et ses genres sont incorporés dans la famille Typhaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Typhaceae.
 </t>
         </is>
       </c>
